--- a/Templates/Poule_5.xlsx
+++ b/Templates/Poule_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\winlin\Python\AJDS\Judo-Plus-Sheets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D58627F-207D-4D52-BF11-73E9617F91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D423D-FA8C-4622-80C7-02672DCC78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Poule" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Nº</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Categ.</t>
-  </si>
-  <si>
     <t>1º</t>
   </si>
   <si>
@@ -102,10 +99,10 @@
     <t xml:space="preserve">Projecto Judo + </t>
   </si>
   <si>
-    <t>Torneio Judo Rio Maior</t>
-  </si>
-  <si>
-    <t>Rio Maior, 19 de Maio de 2024</t>
+    <t>Torneio Judo Torres Novas</t>
+  </si>
+  <si>
+    <t>Torres Novas, 5 de Outubro de 2024</t>
   </si>
 </sst>
 </file>
@@ -602,16 +599,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -685,8 +676,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1177,7 +1174,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="M4" sqref="M4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,15 +1197,15 @@
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="47" t="s">
-        <v>20</v>
+      <c r="C2" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="47" t="s">
-        <v>21</v>
+      <c r="I2" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1221,8 +1218,8 @@
     <row r="3" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="47" t="s">
-        <v>22</v>
+      <c r="C3" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1249,29 +1246,27 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="60"/>
+      <c r="K4" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="58"/>
       <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
+      <c r="N4" s="60"/>
       <c r="O4" s="60"/>
-      <c r="P4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="31"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="Q5" s="4"/>
     </row>
     <row r="7" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1307,25 +1302,25 @@
       <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="58" t="s">
+      <c r="Q7" s="56" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
     </row>
     <row r="8" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="37" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2">
@@ -1358,23 +1353,23 @@
       <c r="N8" s="2">
         <v>5</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
       <c r="S8" s="4"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
     </row>
     <row r="9" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>1</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="26"/>
       <c r="H9" s="25"/>
       <c r="I9" s="26"/>
@@ -1387,19 +1382,19 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="S9" s="4"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
     </row>
     <row r="10" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>2</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
@@ -1412,19 +1407,19 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="S10" s="4"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
     </row>
     <row r="11" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>3</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
       <c r="I11" s="25"/>
@@ -1437,19 +1432,19 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="S11" s="4"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
     </row>
     <row r="12" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>4</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -1468,9 +1463,9 @@
       <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -1485,62 +1480,62 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="S13" s="4"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
       <c r="S14" s="4"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="40"/>
+      <c r="I15" s="38"/>
       <c r="K15" s="20"/>
       <c r="S15" s="4"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
     </row>
     <row r="16" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="K16" s="41"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="K16" s="39"/>
       <c r="S16" s="4"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="4"/>
-      <c r="I17" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="44"/>
+      <c r="I17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="42"/>
       <c r="S17" s="4"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
     </row>
     <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="8"/>
@@ -1549,7 +1544,7 @@
     </row>
     <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="8"/>
@@ -1558,7 +1553,7 @@
     </row>
     <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="9"/>
@@ -1567,7 +1562,7 @@
     </row>
     <row r="21" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="10"/>
@@ -1577,13 +1572,13 @@
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1608,7 +1603,7 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M4:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Templates/Poule_5.xlsx
+++ b/Templates/Poule_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\winlin\Python\AJDS\Judo-Plus-Sheets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D423D-FA8C-4622-80C7-02672DCC78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BEE945-8A5F-4D7D-B50B-C7094D12EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32730" yWindow="3930" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Poule" sheetId="3" r:id="rId1"/>
@@ -544,7 +544,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +661,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,17 +682,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,7 +1177,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:P4"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1239,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="D4" s="4"/>
@@ -1246,27 +1249,27 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="46"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="Q5" s="4"/>
     </row>
     <row r="7" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1302,13 +1305,13 @@
       <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="O7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="P7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" s="60" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="4"/>
@@ -1317,9 +1320,9 @@
       <c r="W7" s="47"/>
     </row>
     <row r="8" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="35" t="s">
         <v>6</v>
       </c>
@@ -1353,9 +1356,9 @@
       <c r="N8" s="2">
         <v>5</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
       <c r="S8" s="4"/>
       <c r="U8" s="46"/>
       <c r="V8" s="46"/>
@@ -1499,10 +1502,10 @@
       <c r="W15" s="46"/>
     </row>
     <row r="16" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1522,11 +1525,11 @@
       <c r="B17" s="30"/>
       <c r="C17" s="28"/>
       <c r="D17" s="4"/>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="42"/>
       <c r="S17" s="4"/>
       <c r="U17" s="46"/>
@@ -1594,16 +1597,16 @@
     <sortCondition ref="S7"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Templates/Poule_5.xlsx
+++ b/Templates/Poule_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\winlin\Python\AJDS\Judo-Plus-Sheets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BEE945-8A5F-4D7D-B50B-C7094D12EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA03E1-E793-42BC-8968-8F4BDE3319B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="3930" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Poule" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Nº</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Projecto Judo + </t>
-  </si>
-  <si>
-    <t>Torneio Judo Torres Novas</t>
-  </si>
-  <si>
-    <t>Torres Novas, 5 de Outubro de 2024</t>
   </si>
 </sst>
 </file>
@@ -664,26 +658,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,7 +1171,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,9 +1201,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="45" t="s">
-        <v>20</v>
-      </c>
+      <c r="I2" s="45"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1221,9 +1213,7 @@
     <row r="3" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="45" t="s">
-        <v>21</v>
-      </c>
+      <c r="C3" s="45"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1252,24 +1242,24 @@
       <c r="K4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="Q5" s="4"/>
     </row>
     <row r="7" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1305,13 +1295,13 @@
       <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="60" t="s">
+      <c r="O7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="Q7" s="56" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="4"/>
@@ -1320,9 +1310,9 @@
       <c r="W7" s="47"/>
     </row>
     <row r="8" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="35" t="s">
         <v>6</v>
       </c>
@@ -1356,9 +1346,9 @@
       <c r="N8" s="2">
         <v>5</v>
       </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
       <c r="S8" s="4"/>
       <c r="U8" s="46"/>
       <c r="V8" s="46"/>
@@ -1505,7 +1495,7 @@
       <c r="A16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1597,16 +1587,16 @@
     <sortCondition ref="S7"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M4:Q4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
